--- a/Report of Foresty_20251127/合併估算/年的相對密度_bootstrap.xlsx
+++ b/Report of Foresty_20251127/合併估算/年的相對密度_bootstrap.xlsx
@@ -412,13 +412,13 @@
         <v>0.03082685105157015</v>
       </c>
       <c r="C2">
-        <v>0.03512911264765197</v>
+        <v>0.03511757418611351</v>
       </c>
       <c r="D2">
         <v>0.03946989340247768</v>
       </c>
       <c r="E2">
-        <v>23513.54807207448</v>
+        <v>23505.82484340134</v>
       </c>
       <c r="F2">
         <v>20633.84439516218</v>
@@ -427,10 +427,10 @@
         <v>26419.03441249737</v>
       </c>
       <c r="H2">
-        <v>10.06533204771737</v>
+        <v>10.06500353509528</v>
       </c>
       <c r="I2">
-        <v>587838.701801862</v>
+        <v>587645.6210850334</v>
       </c>
     </row>
     <row r="3">
@@ -441,25 +441,25 @@
         <v>0.03302205981864934</v>
       </c>
       <c r="C3">
-        <v>0.03735422925971038</v>
+        <v>0.03730951414264447</v>
       </c>
       <c r="D3">
-        <v>0.04181892001624036</v>
+        <v>0.04168358370550819</v>
       </c>
       <c r="E3">
-        <v>25002.92205508352</v>
+        <v>24972.99214864884</v>
       </c>
       <c r="F3">
         <v>22103.19966726029</v>
       </c>
       <c r="G3">
-        <v>27991.34711960422</v>
+        <v>27900.76023572201</v>
       </c>
       <c r="H3">
-        <v>10.12674797922349</v>
+        <v>10.12555020583645</v>
       </c>
       <c r="I3">
-        <v>625073.0513770881</v>
+        <v>624324.803716221</v>
       </c>
     </row>
     <row r="4">
@@ -470,13 +470,13 @@
         <v>0.02994791666666667</v>
       </c>
       <c r="C4">
-        <v>0.03397330729166666</v>
+        <v>0.033957421875</v>
       </c>
       <c r="D4">
         <v>0.03802083333333333</v>
       </c>
       <c r="E4">
-        <v>22739.91381969497</v>
+        <v>22729.28097188629</v>
       </c>
       <c r="F4">
         <v>20045.5327540764</v>
@@ -485,10 +485,10 @@
         <v>25449.11114865352</v>
       </c>
       <c r="H4">
-        <v>10.03187697748622</v>
+        <v>10.03140928290525</v>
       </c>
       <c r="I4">
-        <v>568497.8454923743</v>
+        <v>568232.0242971572</v>
       </c>
     </row>
     <row r="5">
@@ -496,28 +496,28 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>0.02710304270007671</v>
+        <v>0.0272308872411148</v>
       </c>
       <c r="C5">
-        <v>0.03094333929941192</v>
+        <v>0.03095721043211455</v>
       </c>
       <c r="D5">
-        <v>0.03477371516236256</v>
+        <v>0.03490155970340066</v>
       </c>
       <c r="E5">
-        <v>20711.81539439953</v>
+        <v>20721.09998831709</v>
       </c>
       <c r="F5">
-        <v>18141.32636425524</v>
+        <v>18226.89865842625</v>
       </c>
       <c r="G5">
-        <v>23275.66401451615</v>
+        <v>23361.23630868717</v>
       </c>
       <c r="H5">
-        <v>9.938459608413647</v>
+        <v>9.938907783203531</v>
       </c>
       <c r="I5">
-        <v>517795.3848599883</v>
+        <v>518027.4997079272</v>
       </c>
     </row>
   </sheetData>

--- a/Report of Foresty_20251127/合併估算/年的相對密度_bootstrap.xlsx
+++ b/Report of Foresty_20251127/合併估算/年的相對密度_bootstrap.xlsx
@@ -412,25 +412,25 @@
         <v>0.03082685105157015</v>
       </c>
       <c r="C2">
-        <v>0.03511757418611351</v>
+        <v>0.03514539037741285</v>
       </c>
       <c r="D2">
-        <v>0.03946989340247768</v>
+        <v>0.03961394410832613</v>
       </c>
       <c r="E2">
-        <v>23505.82484340134</v>
+        <v>23524.44351327379</v>
       </c>
       <c r="F2">
         <v>20633.84439516218</v>
       </c>
       <c r="G2">
-        <v>26419.03441249737</v>
+        <v>26515.45424611962</v>
       </c>
       <c r="H2">
-        <v>10.06500353509528</v>
+        <v>10.06579530905259</v>
       </c>
       <c r="I2">
-        <v>587645.6210850334</v>
+        <v>588111.0878318448</v>
       </c>
     </row>
     <row r="3">
@@ -441,13 +441,13 @@
         <v>0.03302205981864934</v>
       </c>
       <c r="C3">
-        <v>0.03730951414264447</v>
+        <v>0.03732287183651373</v>
       </c>
       <c r="D3">
         <v>0.04168358370550819</v>
       </c>
       <c r="E3">
-        <v>24972.99214864884</v>
+        <v>24981.93307408801</v>
       </c>
       <c r="F3">
         <v>22103.19966726029</v>
@@ -456,10 +456,10 @@
         <v>27900.76023572201</v>
       </c>
       <c r="H3">
-        <v>10.12555020583645</v>
+        <v>10.12590816555693</v>
       </c>
       <c r="I3">
-        <v>624324.803716221</v>
+        <v>624548.3268522003</v>
       </c>
     </row>
     <row r="4">
@@ -470,25 +470,25 @@
         <v>0.02994791666666667</v>
       </c>
       <c r="C4">
-        <v>0.033957421875</v>
+        <v>0.03400954427083333</v>
       </c>
       <c r="D4">
-        <v>0.03802083333333333</v>
+        <v>0.03815104166666667</v>
       </c>
       <c r="E4">
-        <v>22729.28097188629</v>
+        <v>22764.16891432741</v>
       </c>
       <c r="F4">
         <v>20045.5327540764</v>
       </c>
       <c r="G4">
-        <v>25449.11114865352</v>
+        <v>25536.26563888863</v>
       </c>
       <c r="H4">
-        <v>10.03140928290525</v>
+        <v>10.03294303993478</v>
       </c>
       <c r="I4">
-        <v>568232.0242971572</v>
+        <v>569104.2228581852</v>
       </c>
     </row>
     <row r="5">
@@ -496,28 +496,28 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>0.0272308872411148</v>
+        <v>0.02710304270007671</v>
       </c>
       <c r="C5">
-        <v>0.03095721043211455</v>
+        <v>0.03092124776272053</v>
       </c>
       <c r="D5">
-        <v>0.03490155970340066</v>
+        <v>0.03477371516236256</v>
       </c>
       <c r="E5">
-        <v>20721.09998831709</v>
+        <v>20697.02850196678</v>
       </c>
       <c r="F5">
-        <v>18226.89865842625</v>
+        <v>18141.32636425524</v>
       </c>
       <c r="G5">
-        <v>23361.23630868717</v>
+        <v>23275.66401451615</v>
       </c>
       <c r="H5">
-        <v>9.938907783203531</v>
+        <v>9.937745418319459</v>
       </c>
       <c r="I5">
-        <v>518027.4997079272</v>
+        <v>517425.7125491695</v>
       </c>
     </row>
   </sheetData>

--- a/Report of Foresty_20251127/合併估算/年的相對密度_bootstrap.xlsx
+++ b/Report of Foresty_20251127/合併估算/年的相對密度_bootstrap.xlsx
@@ -409,13 +409,13 @@
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>0.03082685105157015</v>
+        <v>0.9812491449629963</v>
       </c>
       <c r="C2">
-        <v>0.03514539037741285</v>
+        <v>1.118712521091918</v>
       </c>
       <c r="D2">
-        <v>0.03961394410832613</v>
+        <v>1.260951004041234</v>
       </c>
       <c r="E2">
         <v>23524.44351327379</v>
@@ -438,16 +438,16 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>0.03302205981864934</v>
+        <v>1.05112481024286</v>
       </c>
       <c r="C3">
-        <v>0.03732287183651373</v>
+        <v>1.188023908633289</v>
       </c>
       <c r="D3">
-        <v>0.04168358370550819</v>
+        <v>1.326829678503282</v>
       </c>
       <c r="E3">
-        <v>24981.93307408801</v>
+        <v>24981.93307408802</v>
       </c>
       <c r="F3">
         <v>22103.19966726029</v>
@@ -459,7 +459,7 @@
         <v>10.12590816555693</v>
       </c>
       <c r="I3">
-        <v>624548.3268522003</v>
+        <v>624548.3268522004</v>
       </c>
     </row>
     <row r="4">
@@ -467,13 +467,13 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>0.02994791666666667</v>
+        <v>0.9532717945608314</v>
       </c>
       <c r="C4">
-        <v>0.03400954427083333</v>
+        <v>1.082557416601155</v>
       </c>
       <c r="D4">
-        <v>0.03815104166666667</v>
+        <v>1.214385373070972</v>
       </c>
       <c r="E4">
         <v>22764.16891432741</v>
@@ -496,13 +496,13 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>0.02710304270007671</v>
+        <v>0.8627166437095835</v>
       </c>
       <c r="C5">
-        <v>0.03092124776272053</v>
+        <v>0.9842538856012364</v>
       </c>
       <c r="D5">
-        <v>0.03477371516236256</v>
+        <v>1.106881731551918</v>
       </c>
       <c r="E5">
         <v>20697.02850196678</v>
